--- a/heta/table.xlsx
+++ b/heta/table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="3" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="export julia" sheetId="5" r:id="rId4"/>
     <sheet name="import" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17562" uniqueCount="4824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17562" uniqueCount="4825">
   <si>
     <t>on</t>
   </si>
@@ -14490,12 +14490,15 @@
   </si>
   <si>
     <t>Julia</t>
+  </si>
+  <si>
+    <t>spaceFilter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -14598,7 +14601,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -14614,9 +14617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14654,9 +14657,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14691,7 +14694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14726,7 +14729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25454,8 +25457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A955" workbookViewId="0">
-      <selection activeCell="D958" sqref="D958"/>
+    <sheetView topLeftCell="A808" workbookViewId="0">
+      <selection activeCell="H979" sqref="H979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42737,7 +42740,7 @@
   <dimension ref="A1:J959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42760,7 +42763,7 @@
         <v>4820</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>4824</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -65719,8 +65722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E959"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65740,7 +65743,7 @@
         <v>4820</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>4824</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>

--- a/heta/table.xlsx
+++ b/heta/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="3" r:id="rId1"/>
@@ -14905,8 +14905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I959"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25457,8 +25457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F959"/>
   <sheetViews>
-    <sheetView topLeftCell="A808" workbookViewId="0">
-      <selection activeCell="H979" sqref="H979"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26079,7 +26079,7 @@
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>8</v>
@@ -26096,7 +26096,7 @@
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>8</v>
@@ -26165,7 +26165,7 @@
     </row>
     <row r="43" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>8</v>
@@ -26185,7 +26185,7 @@
     </row>
     <row r="44" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>8</v>
@@ -26673,7 +26673,7 @@
     </row>
     <row r="72" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>8</v>
@@ -26693,7 +26693,7 @@
     </row>
     <row r="73" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>8</v>
@@ -26713,7 +26713,7 @@
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>8</v>
@@ -26733,7 +26733,7 @@
     </row>
     <row r="75" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>8</v>
@@ -26753,7 +26753,7 @@
     </row>
     <row r="76" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>8</v>
@@ -26773,7 +26773,7 @@
     </row>
     <row r="77" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>8</v>
@@ -26861,7 +26861,7 @@
     </row>
     <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>8</v>
@@ -26878,7 +26878,7 @@
     </row>
     <row r="83" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>8</v>
@@ -26895,7 +26895,7 @@
     </row>
     <row r="84" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>8</v>
@@ -26963,7 +26963,7 @@
     </row>
     <row r="88" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>8</v>
@@ -26980,7 +26980,7 @@
     </row>
     <row r="89" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>8</v>
@@ -26997,7 +26997,7 @@
     </row>
     <row r="90" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>8</v>
@@ -27150,7 +27150,7 @@
     </row>
     <row r="99" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>8</v>
@@ -27167,7 +27167,7 @@
     </row>
     <row r="100" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>8</v>
@@ -27184,7 +27184,7 @@
     </row>
     <row r="101" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>8</v>
@@ -27201,7 +27201,7 @@
     </row>
     <row r="102" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>8</v>
@@ -27218,7 +27218,7 @@
     </row>
     <row r="103" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>8</v>
@@ -27235,7 +27235,7 @@
     </row>
     <row r="104" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>8</v>
@@ -27252,7 +27252,7 @@
     </row>
     <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>8</v>
@@ -27269,7 +27269,7 @@
     </row>
     <row r="106" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>8</v>
@@ -27286,7 +27286,7 @@
     </row>
     <row r="107" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>8</v>
@@ -27303,7 +27303,7 @@
     </row>
     <row r="108" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>8</v>
@@ -27320,7 +27320,7 @@
     </row>
     <row r="109" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>8</v>
@@ -27337,7 +27337,7 @@
     </row>
     <row r="110" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>8</v>
@@ -27354,7 +27354,7 @@
     </row>
     <row r="111" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>8</v>
@@ -27371,7 +27371,7 @@
     </row>
     <row r="112" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>8</v>
@@ -27388,7 +27388,7 @@
     </row>
     <row r="113" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>8</v>
@@ -27405,7 +27405,7 @@
     </row>
     <row r="114" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>8</v>
@@ -27422,7 +27422,7 @@
     </row>
     <row r="115" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>8</v>
@@ -27439,7 +27439,7 @@
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>8</v>
@@ -27456,7 +27456,7 @@
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>8</v>
@@ -27473,7 +27473,7 @@
     </row>
     <row r="118" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>8</v>
@@ -27490,7 +27490,7 @@
     </row>
     <row r="119" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>8</v>
@@ -27507,7 +27507,7 @@
     </row>
     <row r="120" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>8</v>
@@ -27524,7 +27524,7 @@
     </row>
     <row r="121" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>8</v>
@@ -27541,7 +27541,7 @@
     </row>
     <row r="122" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>8</v>
@@ -27558,7 +27558,7 @@
     </row>
     <row r="123" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>8</v>
@@ -27575,7 +27575,7 @@
     </row>
     <row r="124" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>8</v>
@@ -27592,7 +27592,7 @@
     </row>
     <row r="125" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>8</v>
@@ -27609,7 +27609,7 @@
     </row>
     <row r="126" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>8</v>
@@ -27626,7 +27626,7 @@
     </row>
     <row r="127" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>8</v>
@@ -27643,7 +27643,7 @@
     </row>
     <row r="128" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>8</v>
@@ -27660,7 +27660,7 @@
     </row>
     <row r="129" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>8</v>
@@ -27677,7 +27677,7 @@
     </row>
     <row r="130" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>8</v>
@@ -27694,7 +27694,7 @@
     </row>
     <row r="131" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>8</v>
@@ -27711,7 +27711,7 @@
     </row>
     <row r="132" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>8</v>
@@ -27728,7 +27728,7 @@
     </row>
     <row r="133" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>8</v>
@@ -27745,7 +27745,7 @@
     </row>
     <row r="134" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>8</v>
@@ -27762,7 +27762,7 @@
     </row>
     <row r="135" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>8</v>
@@ -27839,7 +27839,7 @@
     </row>
     <row r="139" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>8</v>
@@ -27856,7 +27856,7 @@
     </row>
     <row r="140" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>8</v>
@@ -27873,7 +27873,7 @@
     </row>
     <row r="141" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>8</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="142" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>8</v>
@@ -27907,7 +27907,7 @@
     </row>
     <row r="143" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>8</v>
@@ -27924,7 +27924,7 @@
     </row>
     <row r="144" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>8</v>
@@ -27944,7 +27944,7 @@
     </row>
     <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>8</v>
@@ -27961,7 +27961,7 @@
     </row>
     <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>8</v>
@@ -27978,7 +27978,7 @@
     </row>
     <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>8</v>
@@ -27995,7 +27995,7 @@
     </row>
     <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>8</v>
@@ -28012,7 +28012,7 @@
     </row>
     <row r="149" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>8</v>
@@ -28029,7 +28029,7 @@
     </row>
     <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>8</v>
@@ -28046,7 +28046,7 @@
     </row>
     <row r="151" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>8</v>
@@ -28063,7 +28063,7 @@
     </row>
     <row r="152" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>8</v>
@@ -28080,7 +28080,7 @@
     </row>
     <row r="153" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>8</v>
@@ -28097,7 +28097,7 @@
     </row>
     <row r="154" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>8</v>
@@ -28114,7 +28114,7 @@
     </row>
     <row r="155" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>8</v>
@@ -28131,7 +28131,7 @@
     </row>
     <row r="156" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>8</v>
@@ -28148,7 +28148,7 @@
     </row>
     <row r="157" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>8</v>
@@ -28165,7 +28165,7 @@
     </row>
     <row r="158" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>8</v>
@@ -28182,7 +28182,7 @@
     </row>
     <row r="159" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>8</v>
@@ -28199,7 +28199,7 @@
     </row>
     <row r="160" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>8</v>
@@ -28216,7 +28216,7 @@
     </row>
     <row r="161" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>8</v>
@@ -28233,7 +28233,7 @@
     </row>
     <row r="162" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>8</v>
@@ -28250,7 +28250,7 @@
     </row>
     <row r="163" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>8</v>
@@ -28267,7 +28267,7 @@
     </row>
     <row r="164" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>8</v>
@@ -28284,7 +28284,7 @@
     </row>
     <row r="165" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>8</v>
@@ -28301,7 +28301,7 @@
     </row>
     <row r="166" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>8</v>
@@ -28318,7 +28318,7 @@
     </row>
     <row r="167" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>8</v>
@@ -28335,7 +28335,7 @@
     </row>
     <row r="168" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>8</v>
@@ -28352,7 +28352,7 @@
     </row>
     <row r="169" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>8</v>
@@ -28369,7 +28369,7 @@
     </row>
     <row r="170" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>8</v>
@@ -28386,7 +28386,7 @@
     </row>
     <row r="171" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>8</v>
@@ -28403,7 +28403,7 @@
     </row>
     <row r="172" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>8</v>
@@ -28420,7 +28420,7 @@
     </row>
     <row r="173" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>8</v>
@@ -28437,7 +28437,7 @@
     </row>
     <row r="174" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>8</v>
@@ -28454,7 +28454,7 @@
     </row>
     <row r="175" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>8</v>
@@ -28471,7 +28471,7 @@
     </row>
     <row r="176" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>8</v>
@@ -28488,7 +28488,7 @@
     </row>
     <row r="177" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>8</v>
@@ -28506,7 +28506,11 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="11">
+        <v>1</v>
+      </c>
+    </row>
     <row r="179" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="11">
         <v>1</v>
@@ -28560,7 +28564,7 @@
     </row>
     <row r="182" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>8</v>
@@ -28577,7 +28581,7 @@
     </row>
     <row r="183" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>8</v>
@@ -28628,7 +28632,7 @@
     </row>
     <row r="186" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>8</v>
@@ -28648,7 +28652,7 @@
     </row>
     <row r="187" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>8</v>
@@ -28665,7 +28669,7 @@
     </row>
     <row r="188" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>8</v>
@@ -30140,7 +30144,7 @@
     </row>
     <row r="273" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>8</v>
@@ -30157,7 +30161,7 @@
     </row>
     <row r="274" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B274" s="9" t="s">
         <v>8</v>
@@ -30174,7 +30178,7 @@
     </row>
     <row r="275" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B275" s="9" t="s">
         <v>8</v>
@@ -30191,7 +30195,7 @@
     </row>
     <row r="276" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>8</v>
@@ -30208,7 +30212,7 @@
     </row>
     <row r="277" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B277" s="9" t="s">
         <v>8</v>
@@ -30225,7 +30229,7 @@
     </row>
     <row r="278" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>8</v>
@@ -30242,7 +30246,7 @@
     </row>
     <row r="279" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B279" s="9" t="s">
         <v>8</v>
@@ -30259,7 +30263,7 @@
     </row>
     <row r="280" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>8</v>
@@ -30276,7 +30280,7 @@
     </row>
     <row r="281" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>8</v>
@@ -30293,7 +30297,7 @@
     </row>
     <row r="282" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>8</v>
@@ -30310,7 +30314,7 @@
     </row>
     <row r="283" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" s="9" t="s">
         <v>8</v>
@@ -30327,7 +30331,7 @@
     </row>
     <row r="284" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>8</v>
@@ -30344,7 +30348,7 @@
     </row>
     <row r="285" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>8</v>
@@ -30361,7 +30365,7 @@
     </row>
     <row r="286" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>8</v>
@@ -30378,7 +30382,7 @@
     </row>
     <row r="287" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B287" s="9" t="s">
         <v>8</v>
@@ -30395,7 +30399,7 @@
     </row>
     <row r="288" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B288" s="9" t="s">
         <v>8</v>
@@ -30412,7 +30416,7 @@
     </row>
     <row r="289" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>8</v>
@@ -31585,7 +31589,7 @@
     </row>
     <row r="358" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A358" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B358" s="9" t="s">
         <v>8</v>
@@ -31602,7 +31606,7 @@
     </row>
     <row r="359" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A359" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>8</v>
@@ -31619,7 +31623,7 @@
     </row>
     <row r="360" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B360" s="9" t="s">
         <v>8</v>
@@ -31636,7 +31640,7 @@
     </row>
     <row r="361" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A361" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B361" s="9" t="s">
         <v>8</v>
@@ -31653,7 +31657,7 @@
     </row>
     <row r="362" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A362" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B362" s="9" t="s">
         <v>8</v>
@@ -31670,7 +31674,7 @@
     </row>
     <row r="363" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A363" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B363" s="9" t="s">
         <v>8</v>
@@ -32196,7 +32200,7 @@
     </row>
     <row r="392" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A392" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B392" s="9" t="s">
         <v>8</v>
@@ -32253,7 +32257,7 @@
     </row>
     <row r="395" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A395" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B395" s="9" t="s">
         <v>8</v>
@@ -32290,7 +32294,7 @@
     </row>
     <row r="397" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A397" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B397" s="11" t="s">
         <v>8</v>
@@ -32310,7 +32314,7 @@
     </row>
     <row r="398" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A398" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B398" s="13" t="s">
         <v>8</v>
@@ -32347,7 +32351,7 @@
     </row>
     <row r="400" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A400" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B400" s="11" t="s">
         <v>8</v>
@@ -32367,7 +32371,7 @@
     </row>
     <row r="401" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A401" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B401" s="7" t="s">
         <v>8</v>
@@ -32387,7 +32391,7 @@
     </row>
     <row r="402" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A402" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B402" s="11" t="s">
         <v>8</v>
@@ -32407,7 +32411,7 @@
     </row>
     <row r="403" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A403" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B403" s="11" t="s">
         <v>8</v>
@@ -32427,7 +32431,7 @@
     </row>
     <row r="404" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A404" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B404" s="11" t="s">
         <v>8</v>
@@ -32447,7 +32451,7 @@
     </row>
     <row r="405" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A405" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B405" s="11" t="s">
         <v>8</v>
@@ -32467,7 +32471,7 @@
     </row>
     <row r="406" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A406" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B406" s="11" t="s">
         <v>8</v>
@@ -32487,7 +32491,7 @@
     </row>
     <row r="407" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A407" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B407" s="11" t="s">
         <v>8</v>
@@ -32504,7 +32508,7 @@
     </row>
     <row r="408" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A408" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B408" s="11" t="s">
         <v>8</v>
@@ -32521,7 +32525,7 @@
     </row>
     <row r="409" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A409" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B409" s="13" t="s">
         <v>8</v>
@@ -32541,7 +32545,7 @@
     </row>
     <row r="410" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A410" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B410" s="13" t="s">
         <v>8</v>
@@ -32561,7 +32565,7 @@
     </row>
     <row r="411" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A411" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B411" s="13" t="s">
         <v>8</v>
@@ -32581,7 +32585,7 @@
     </row>
     <row r="412" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A412" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B412" s="13" t="s">
         <v>8</v>
@@ -32601,7 +32605,7 @@
     </row>
     <row r="413" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A413" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B413" s="13" t="s">
         <v>8</v>
@@ -32621,7 +32625,7 @@
     </row>
     <row r="414" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A414" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B414" s="13" t="s">
         <v>8</v>
@@ -32641,7 +32645,7 @@
     </row>
     <row r="415" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A415" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B415" s="13" t="s">
         <v>8</v>
@@ -32661,7 +32665,7 @@
     </row>
     <row r="416" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A416" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B416" s="13" t="s">
         <v>8</v>
@@ -32681,7 +32685,7 @@
     </row>
     <row r="417" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A417" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>8</v>
@@ -32701,7 +32705,7 @@
     </row>
     <row r="418" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A418" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B418" s="13" t="s">
         <v>8</v>
@@ -32721,7 +32725,7 @@
     </row>
     <row r="419" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A419" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B419" s="13" t="s">
         <v>8</v>
@@ -32741,7 +32745,7 @@
     </row>
     <row r="420" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A420" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B420" s="13" t="s">
         <v>8</v>
@@ -32761,7 +32765,7 @@
     </row>
     <row r="421" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A421" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B421" s="13" t="s">
         <v>8</v>
@@ -32781,7 +32785,7 @@
     </row>
     <row r="422" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A422" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B422" s="13" t="s">
         <v>8</v>
@@ -32801,7 +32805,7 @@
     </row>
     <row r="423" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A423" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B423" s="13" t="s">
         <v>8</v>
@@ -32821,7 +32825,7 @@
     </row>
     <row r="424" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A424" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B424" s="13" t="s">
         <v>8</v>
@@ -32841,7 +32845,7 @@
     </row>
     <row r="425" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A425" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B425" s="13" t="s">
         <v>8</v>
@@ -32861,7 +32865,7 @@
     </row>
     <row r="426" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A426" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B426" s="13" t="s">
         <v>8</v>
@@ -32881,7 +32885,7 @@
     </row>
     <row r="427" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A427" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B427" s="13" t="s">
         <v>8</v>
@@ -32901,7 +32905,7 @@
     </row>
     <row r="428" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A428" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B428" s="13" t="s">
         <v>8</v>
@@ -32921,7 +32925,7 @@
     </row>
     <row r="429" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A429" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B429" s="13" t="s">
         <v>8</v>
@@ -32941,7 +32945,7 @@
     </row>
     <row r="430" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A430" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B430" s="13" t="s">
         <v>8</v>
@@ -32961,7 +32965,7 @@
     </row>
     <row r="431" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A431" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B431" s="13" t="s">
         <v>8</v>
@@ -32981,7 +32985,7 @@
     </row>
     <row r="432" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A432" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B432" s="13" t="s">
         <v>8</v>
@@ -33001,7 +33005,7 @@
     </row>
     <row r="433" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A433" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B433" s="13" t="s">
         <v>8</v>
@@ -33021,7 +33025,7 @@
     </row>
     <row r="434" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A434" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B434" s="13" t="s">
         <v>8</v>
@@ -33041,7 +33045,7 @@
     </row>
     <row r="435" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A435" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B435" s="13" t="s">
         <v>8</v>
@@ -33061,7 +33065,7 @@
     </row>
     <row r="436" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A436" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B436" s="13" t="s">
         <v>8</v>
@@ -33081,7 +33085,7 @@
     </row>
     <row r="437" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A437" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B437" s="13" t="s">
         <v>8</v>
@@ -33101,7 +33105,7 @@
     </row>
     <row r="438" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A438" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B438" s="13" t="s">
         <v>8</v>
@@ -33121,7 +33125,7 @@
     </row>
     <row r="439" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A439" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B439" s="13" t="s">
         <v>8</v>
@@ -33141,7 +33145,7 @@
     </row>
     <row r="440" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A440" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B440" s="13" t="s">
         <v>8</v>
@@ -33161,7 +33165,7 @@
     </row>
     <row r="441" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A441" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B441" s="13" t="s">
         <v>8</v>
@@ -33181,7 +33185,7 @@
     </row>
     <row r="442" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A442" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B442" s="13" t="s">
         <v>8</v>
@@ -33201,7 +33205,7 @@
     </row>
     <row r="443" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A443" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B443" s="13" t="s">
         <v>8</v>
@@ -33221,7 +33225,7 @@
     </row>
     <row r="444" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A444" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B444" s="13" t="s">
         <v>8</v>
@@ -33241,7 +33245,7 @@
     </row>
     <row r="445" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A445" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B445" s="13" t="s">
         <v>8</v>
@@ -33261,7 +33265,7 @@
     </row>
     <row r="446" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A446" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B446" s="13" t="s">
         <v>8</v>
@@ -33281,7 +33285,7 @@
     </row>
     <row r="447" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A447" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B447" s="13" t="s">
         <v>8</v>
@@ -33301,7 +33305,7 @@
     </row>
     <row r="448" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A448" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B448" s="13" t="s">
         <v>8</v>
@@ -33321,7 +33325,7 @@
     </row>
     <row r="449" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A449" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B449" s="13" t="s">
         <v>8</v>
@@ -33341,7 +33345,7 @@
     </row>
     <row r="450" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A450" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B450" s="13" t="s">
         <v>8</v>
@@ -33361,7 +33365,7 @@
     </row>
     <row r="451" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A451" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B451" s="13" t="s">
         <v>8</v>
@@ -33381,7 +33385,7 @@
     </row>
     <row r="452" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A452" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B452" s="13" t="s">
         <v>8</v>
@@ -33401,7 +33405,7 @@
     </row>
     <row r="453" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A453" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B453" s="13" t="s">
         <v>8</v>
@@ -33421,7 +33425,7 @@
     </row>
     <row r="454" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A454" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B454" s="13" t="s">
         <v>8</v>
@@ -33441,7 +33445,7 @@
     </row>
     <row r="455" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A455" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B455" s="13" t="s">
         <v>8</v>
@@ -33461,7 +33465,7 @@
     </row>
     <row r="456" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A456" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B456" s="13" t="s">
         <v>8</v>
@@ -33481,7 +33485,7 @@
     </row>
     <row r="457" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A457" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B457" s="13" t="s">
         <v>8</v>
@@ -33501,7 +33505,7 @@
     </row>
     <row r="458" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A458" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B458" s="13" t="s">
         <v>8</v>
@@ -33521,7 +33525,7 @@
     </row>
     <row r="459" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A459" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B459" s="13" t="s">
         <v>8</v>
@@ -33541,7 +33545,7 @@
     </row>
     <row r="460" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A460" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B460" s="13" t="s">
         <v>8</v>
@@ -33561,7 +33565,7 @@
     </row>
     <row r="461" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A461" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B461" s="13" t="s">
         <v>8</v>
@@ -33581,7 +33585,7 @@
     </row>
     <row r="462" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A462" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B462" s="13" t="s">
         <v>8</v>
@@ -33601,7 +33605,7 @@
     </row>
     <row r="463" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A463" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B463" s="13" t="s">
         <v>8</v>
@@ -33621,7 +33625,7 @@
     </row>
     <row r="464" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A464" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B464" s="13" t="s">
         <v>8</v>
@@ -33641,7 +33645,7 @@
     </row>
     <row r="465" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A465" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B465" s="13" t="s">
         <v>8</v>
@@ -33661,7 +33665,7 @@
     </row>
     <row r="466" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A466" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B466" s="11" t="s">
         <v>8</v>
@@ -33678,7 +33682,7 @@
     </row>
     <row r="467" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A467" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B467" s="11" t="s">
         <v>8</v>
@@ -33695,7 +33699,7 @@
     </row>
     <row r="468" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A468" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B468" s="11" t="s">
         <v>8</v>
@@ -33712,7 +33716,7 @@
     </row>
     <row r="469" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A469" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B469" s="11" t="s">
         <v>8</v>
@@ -33729,7 +33733,7 @@
     </row>
     <row r="470" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A470" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B470" s="11" t="s">
         <v>8</v>
@@ -33746,7 +33750,7 @@
     </row>
     <row r="471" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A471" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B471" s="11" t="s">
         <v>8</v>
@@ -33763,7 +33767,7 @@
     </row>
     <row r="472" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A472" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B472" s="11" t="s">
         <v>8</v>
@@ -33780,7 +33784,7 @@
     </row>
     <row r="473" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A473" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B473" s="11" t="s">
         <v>8</v>
@@ -33797,7 +33801,7 @@
     </row>
     <row r="474" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A474" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B474" s="11" t="s">
         <v>8</v>
@@ -33814,7 +33818,7 @@
     </row>
     <row r="475" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A475" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B475" s="11" t="s">
         <v>8</v>
@@ -33831,7 +33835,7 @@
     </row>
     <row r="476" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A476" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B476" s="11" t="s">
         <v>8</v>
@@ -33848,7 +33852,7 @@
     </row>
     <row r="477" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A477" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B477" s="11" t="s">
         <v>8</v>
@@ -33865,7 +33869,7 @@
     </row>
     <row r="478" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A478" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B478" s="11" t="s">
         <v>8</v>
@@ -33882,7 +33886,7 @@
     </row>
     <row r="479" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A479" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B479" s="11" t="s">
         <v>8</v>
@@ -33899,7 +33903,7 @@
     </row>
     <row r="480" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A480" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B480" s="11" t="s">
         <v>8</v>
@@ -33916,7 +33920,7 @@
     </row>
     <row r="481" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A481" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B481" s="11" t="s">
         <v>8</v>
@@ -33933,7 +33937,7 @@
     </row>
     <row r="482" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A482" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B482" s="11" t="s">
         <v>8</v>
@@ -33950,7 +33954,7 @@
     </row>
     <row r="483" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A483" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B483" s="11" t="s">
         <v>8</v>
@@ -33967,7 +33971,7 @@
     </row>
     <row r="484" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A484" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B484" s="11" t="s">
         <v>8</v>
@@ -33984,7 +33988,7 @@
     </row>
     <row r="485" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A485" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B485" s="11" t="s">
         <v>8</v>
@@ -34001,7 +34005,7 @@
     </row>
     <row r="486" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A486" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B486" s="11" t="s">
         <v>8</v>
@@ -34018,7 +34022,7 @@
     </row>
     <row r="487" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A487" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B487" s="11" t="s">
         <v>8</v>
@@ -34035,7 +34039,7 @@
     </row>
     <row r="488" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A488" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B488" s="11" t="s">
         <v>8</v>
@@ -34052,7 +34056,7 @@
     </row>
     <row r="489" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A489" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B489" s="11" t="s">
         <v>8</v>
@@ -34069,7 +34073,7 @@
     </row>
     <row r="490" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A490" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B490" s="11" t="s">
         <v>8</v>
@@ -34086,7 +34090,7 @@
     </row>
     <row r="491" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A491" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B491" s="11" t="s">
         <v>8</v>
@@ -34103,7 +34107,7 @@
     </row>
     <row r="492" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A492" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B492" s="11" t="s">
         <v>8</v>
@@ -34120,7 +34124,7 @@
     </row>
     <row r="493" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A493" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B493" s="11" t="s">
         <v>8</v>
@@ -34137,7 +34141,7 @@
     </row>
     <row r="494" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A494" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B494" s="11" t="s">
         <v>8</v>
@@ -34154,7 +34158,7 @@
     </row>
     <row r="495" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A495" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B495" s="11" t="s">
         <v>8</v>
@@ -34171,7 +34175,7 @@
     </row>
     <row r="496" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A496" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B496" s="11" t="s">
         <v>8</v>
@@ -34188,7 +34192,7 @@
     </row>
     <row r="497" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A497" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B497" s="11" t="s">
         <v>8</v>
@@ -34205,7 +34209,7 @@
     </row>
     <row r="498" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A498" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B498" s="11" t="s">
         <v>8</v>
@@ -34222,7 +34226,7 @@
     </row>
     <row r="499" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A499" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B499" s="11" t="s">
         <v>8</v>
@@ -34239,7 +34243,7 @@
     </row>
     <row r="500" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A500" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B500" s="11" t="s">
         <v>8</v>
@@ -34256,7 +34260,7 @@
     </row>
     <row r="501" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A501" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B501" s="11" t="s">
         <v>8</v>
@@ -34273,7 +34277,7 @@
     </row>
     <row r="502" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A502" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B502" s="11" t="s">
         <v>8</v>
@@ -34290,7 +34294,7 @@
     </row>
     <row r="503" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A503" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B503" s="11" t="s">
         <v>8</v>
@@ -34307,7 +34311,7 @@
     </row>
     <row r="504" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A504" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B504" s="11" t="s">
         <v>8</v>
@@ -34324,7 +34328,7 @@
     </row>
     <row r="505" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A505" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B505" s="11" t="s">
         <v>8</v>
@@ -34341,7 +34345,7 @@
     </row>
     <row r="506" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A506" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B506" s="11" t="s">
         <v>8</v>
@@ -34358,7 +34362,7 @@
     </row>
     <row r="507" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A507" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B507" s="11" t="s">
         <v>8</v>
@@ -34375,7 +34379,7 @@
     </row>
     <row r="508" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A508" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B508" s="11" t="s">
         <v>8</v>
@@ -34392,7 +34396,7 @@
     </row>
     <row r="509" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A509" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B509" s="11" t="s">
         <v>8</v>
@@ -34409,7 +34413,7 @@
     </row>
     <row r="510" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A510" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B510" s="11" t="s">
         <v>8</v>
@@ -34426,7 +34430,7 @@
     </row>
     <row r="511" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A511" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B511" s="11" t="s">
         <v>8</v>
@@ -34443,7 +34447,7 @@
     </row>
     <row r="512" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A512" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B512" s="11" t="s">
         <v>8</v>
@@ -34460,7 +34464,7 @@
     </row>
     <row r="513" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A513" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B513" s="11" t="s">
         <v>8</v>
@@ -34477,7 +34481,7 @@
     </row>
     <row r="514" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A514" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B514" s="11" t="s">
         <v>8</v>
@@ -34494,7 +34498,7 @@
     </row>
     <row r="515" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A515" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B515" s="11" t="s">
         <v>8</v>
@@ -34511,7 +34515,7 @@
     </row>
     <row r="516" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A516" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B516" s="11" t="s">
         <v>8</v>
@@ -34528,7 +34532,7 @@
     </row>
     <row r="517" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A517" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B517" s="11" t="s">
         <v>8</v>
@@ -34545,7 +34549,7 @@
     </row>
     <row r="518" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A518" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B518" s="11" t="s">
         <v>8</v>
@@ -34562,7 +34566,7 @@
     </row>
     <row r="519" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A519" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B519" s="11" t="s">
         <v>8</v>
@@ -34579,7 +34583,7 @@
     </row>
     <row r="520" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A520" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B520" s="13" t="s">
         <v>8</v>
@@ -34596,7 +34600,7 @@
     </row>
     <row r="521" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A521" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B521" s="13" t="s">
         <v>8</v>
@@ -34613,7 +34617,7 @@
     </row>
     <row r="522" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A522" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B522" s="13" t="s">
         <v>8</v>
@@ -34630,7 +34634,7 @@
     </row>
     <row r="523" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A523" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B523" s="13" t="s">
         <v>8</v>
@@ -34647,7 +34651,7 @@
     </row>
     <row r="524" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A524" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B524" s="13" t="s">
         <v>8</v>
@@ -34664,7 +34668,7 @@
     </row>
     <row r="525" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A525" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B525" s="13" t="s">
         <v>8</v>
@@ -34801,7 +34805,7 @@
     </row>
     <row r="532" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A532" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B532" s="13" t="s">
         <v>8</v>
@@ -34818,7 +34822,7 @@
     </row>
     <row r="533" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A533" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B533" s="13" t="s">
         <v>8</v>
@@ -34835,7 +34839,7 @@
     </row>
     <row r="534" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A534" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B534" s="13" t="s">
         <v>8</v>
@@ -34852,7 +34856,7 @@
     </row>
     <row r="535" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A535" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B535" s="13" t="s">
         <v>8</v>
@@ -34872,7 +34876,7 @@
     </row>
     <row r="536" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A536" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B536" s="13" t="s">
         <v>8</v>
@@ -34892,7 +34896,7 @@
     </row>
     <row r="537" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A537" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B537" s="13" t="s">
         <v>8</v>
@@ -34912,7 +34916,7 @@
     </row>
     <row r="538" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A538" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B538" s="13" t="s">
         <v>8</v>
@@ -34932,7 +34936,7 @@
     </row>
     <row r="539" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A539" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B539" s="13" t="s">
         <v>8</v>
@@ -34952,7 +34956,7 @@
     </row>
     <row r="540" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A540" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B540" s="13" t="s">
         <v>8</v>
@@ -34972,7 +34976,7 @@
     </row>
     <row r="541" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A541" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B541" s="13" t="s">
         <v>8</v>
@@ -34992,7 +34996,7 @@
     </row>
     <row r="542" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A542" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B542" s="13" t="s">
         <v>8</v>
@@ -35012,7 +35016,7 @@
     </row>
     <row r="543" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A543" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B543" s="13" t="s">
         <v>8</v>
@@ -35032,7 +35036,7 @@
     </row>
     <row r="544" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A544" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B544" s="13" t="s">
         <v>8</v>
@@ -35052,7 +35056,7 @@
     </row>
     <row r="545" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A545" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B545" s="13" t="s">
         <v>8</v>
@@ -35072,7 +35076,7 @@
     </row>
     <row r="546" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A546" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B546" s="13" t="s">
         <v>8</v>
@@ -35092,7 +35096,7 @@
     </row>
     <row r="547" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A547" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B547" s="13" t="s">
         <v>8</v>
@@ -35112,7 +35116,7 @@
     </row>
     <row r="548" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A548" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B548" s="13" t="s">
         <v>8</v>
@@ -35132,7 +35136,7 @@
     </row>
     <row r="549" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A549" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B549" s="13" t="s">
         <v>8</v>
@@ -35152,7 +35156,7 @@
     </row>
     <row r="550" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A550" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B550" s="13" t="s">
         <v>8</v>
@@ -35172,7 +35176,7 @@
     </row>
     <row r="551" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A551" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B551" s="13" t="s">
         <v>8</v>
@@ -35192,7 +35196,7 @@
     </row>
     <row r="552" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A552" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B552" s="13" t="s">
         <v>8</v>
@@ -35212,7 +35216,7 @@
     </row>
     <row r="553" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A553" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B553" s="13" t="s">
         <v>8</v>
@@ -35232,7 +35236,7 @@
     </row>
     <row r="554" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A554" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B554" s="13" t="s">
         <v>8</v>
@@ -35252,7 +35256,7 @@
     </row>
     <row r="555" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A555" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B555" s="13" t="s">
         <v>8</v>
@@ -35272,7 +35276,7 @@
     </row>
     <row r="556" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A556" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B556" s="13" t="s">
         <v>8</v>
@@ -35292,7 +35296,7 @@
     </row>
     <row r="557" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A557" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B557" s="13" t="s">
         <v>8</v>
@@ -35312,7 +35316,7 @@
     </row>
     <row r="558" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A558" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B558" s="13" t="s">
         <v>8</v>
@@ -35332,7 +35336,7 @@
     </row>
     <row r="559" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A559" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B559" s="13" t="s">
         <v>8</v>
@@ -35352,7 +35356,7 @@
     </row>
     <row r="560" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A560" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B560" s="13" t="s">
         <v>8</v>
@@ -35372,7 +35376,7 @@
     </row>
     <row r="561" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A561" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B561" s="13" t="s">
         <v>8</v>
@@ -35392,7 +35396,7 @@
     </row>
     <row r="562" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A562" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B562" s="13" t="s">
         <v>8</v>
@@ -35412,7 +35416,7 @@
     </row>
     <row r="563" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A563" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B563" s="13" t="s">
         <v>8</v>
@@ -35432,7 +35436,7 @@
     </row>
     <row r="564" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A564" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B564" s="13" t="s">
         <v>8</v>
@@ -35452,7 +35456,7 @@
     </row>
     <row r="565" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A565" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B565" s="13" t="s">
         <v>8</v>
@@ -35472,7 +35476,7 @@
     </row>
     <row r="566" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A566" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B566" s="13" t="s">
         <v>8</v>
@@ -35492,7 +35496,7 @@
     </row>
     <row r="567" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A567" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B567" s="13" t="s">
         <v>8</v>
@@ -35512,7 +35516,7 @@
     </row>
     <row r="568" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A568" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B568" s="13" t="s">
         <v>8</v>
@@ -35532,7 +35536,7 @@
     </row>
     <row r="569" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A569" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B569" s="13" t="s">
         <v>8</v>
@@ -35552,7 +35556,7 @@
     </row>
     <row r="570" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A570" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B570" s="13" t="s">
         <v>8</v>
@@ -35572,7 +35576,7 @@
     </row>
     <row r="571" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A571" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B571" s="13" t="s">
         <v>8</v>
@@ -35592,7 +35596,7 @@
     </row>
     <row r="572" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A572" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B572" s="13" t="s">
         <v>8</v>
@@ -35612,7 +35616,7 @@
     </row>
     <row r="573" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A573" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B573" s="13" t="s">
         <v>8</v>
@@ -35632,7 +35636,7 @@
     </row>
     <row r="574" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A574" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B574" s="13" t="s">
         <v>8</v>
@@ -35652,7 +35656,7 @@
     </row>
     <row r="575" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A575" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B575" s="13" t="s">
         <v>8</v>
@@ -35672,7 +35676,7 @@
     </row>
     <row r="576" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A576" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B576" s="13" t="s">
         <v>8</v>
@@ -35692,7 +35696,7 @@
     </row>
     <row r="577" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A577" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B577" s="13" t="s">
         <v>8</v>
@@ -35712,7 +35716,7 @@
     </row>
     <row r="578" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A578" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B578" s="13" t="s">
         <v>8</v>
@@ -35732,7 +35736,7 @@
     </row>
     <row r="579" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A579" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B579" s="13" t="s">
         <v>8</v>
@@ -35752,7 +35756,7 @@
     </row>
     <row r="580" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A580" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B580" s="13" t="s">
         <v>8</v>
@@ -35772,7 +35776,7 @@
     </row>
     <row r="581" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A581" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B581" s="11" t="s">
         <v>8</v>
@@ -35789,7 +35793,7 @@
     </row>
     <row r="582" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A582" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B582" s="11" t="s">
         <v>8</v>
@@ -35806,7 +35810,7 @@
     </row>
     <row r="583" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A583" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B583" s="11" t="s">
         <v>8</v>
@@ -35823,7 +35827,7 @@
     </row>
     <row r="584" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A584" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B584" s="11" t="s">
         <v>8</v>
@@ -35840,7 +35844,7 @@
     </row>
     <row r="585" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A585" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B585" s="11" t="s">
         <v>8</v>
@@ -35857,7 +35861,7 @@
     </row>
     <row r="586" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A586" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B586" s="11" t="s">
         <v>8</v>
@@ -35874,7 +35878,7 @@
     </row>
     <row r="587" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A587" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B587" s="11" t="s">
         <v>8</v>
@@ -35891,7 +35895,7 @@
     </row>
     <row r="588" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A588" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B588" s="11" t="s">
         <v>8</v>
@@ -35908,7 +35912,7 @@
     </row>
     <row r="589" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A589" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B589" s="11" t="s">
         <v>8</v>
@@ -35925,7 +35929,7 @@
     </row>
     <row r="590" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A590" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B590" s="11" t="s">
         <v>8</v>
@@ -35942,7 +35946,7 @@
     </row>
     <row r="591" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A591" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B591" s="11" t="s">
         <v>8</v>
@@ -35959,7 +35963,7 @@
     </row>
     <row r="592" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A592" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B592" s="11" t="s">
         <v>8</v>
@@ -35976,7 +35980,7 @@
     </row>
     <row r="593" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A593" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B593" s="11" t="s">
         <v>8</v>
@@ -35993,7 +35997,7 @@
     </row>
     <row r="594" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A594" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B594" s="11" t="s">
         <v>8</v>
@@ -36010,7 +36014,7 @@
     </row>
     <row r="595" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A595" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B595" s="11" t="s">
         <v>8</v>
@@ -36027,7 +36031,7 @@
     </row>
     <row r="596" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A596" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B596" s="11" t="s">
         <v>8</v>
@@ -36044,7 +36048,7 @@
     </row>
     <row r="597" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A597" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B597" s="11" t="s">
         <v>8</v>
@@ -36061,7 +36065,7 @@
     </row>
     <row r="598" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A598" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B598" s="11" t="s">
         <v>8</v>
@@ -36138,7 +36142,7 @@
     </row>
     <row r="602" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A602" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B602" s="11" t="s">
         <v>8</v>
@@ -36155,7 +36159,7 @@
     </row>
     <row r="603" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A603" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B603" s="11" t="s">
         <v>8</v>
@@ -36172,7 +36176,7 @@
     </row>
     <row r="604" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A604" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B604" s="11" t="s">
         <v>8</v>
@@ -36189,7 +36193,7 @@
     </row>
     <row r="605" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A605" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B605" s="11" t="s">
         <v>8</v>
@@ -36206,7 +36210,7 @@
     </row>
     <row r="606" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A606" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B606" s="11" t="s">
         <v>8</v>
@@ -36223,7 +36227,7 @@
     </row>
     <row r="607" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A607" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B607" s="11" t="s">
         <v>8</v>
@@ -36240,7 +36244,7 @@
     </row>
     <row r="608" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A608" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B608" s="13" t="s">
         <v>8</v>
@@ -36257,7 +36261,7 @@
     </row>
     <row r="609" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A609" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B609" s="13" t="s">
         <v>8</v>
@@ -36274,7 +36278,7 @@
     </row>
     <row r="610" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A610" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B610" s="13" t="s">
         <v>8</v>
@@ -36291,7 +36295,7 @@
     </row>
     <row r="611" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A611" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B611" s="11" t="s">
         <v>8</v>
@@ -36308,7 +36312,7 @@
     </row>
     <row r="612" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A612" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B612" s="11" t="s">
         <v>8</v>
@@ -36325,7 +36329,7 @@
     </row>
     <row r="613" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A613" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B613" s="13" t="s">
         <v>8</v>
@@ -36342,7 +36346,7 @@
     </row>
     <row r="614" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A614" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B614" s="13" t="s">
         <v>8</v>
@@ -36399,7 +36403,7 @@
     </row>
     <row r="617" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A617" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B617" s="13" t="s">
         <v>8</v>
@@ -36419,7 +36423,7 @@
     </row>
     <row r="618" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A618" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B618" s="13" t="s">
         <v>8</v>
@@ -36439,7 +36443,7 @@
     </row>
     <row r="619" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A619" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B619" s="13" t="s">
         <v>8</v>
@@ -36459,7 +36463,7 @@
     </row>
     <row r="620" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A620" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B620" s="11" t="s">
         <v>8</v>
@@ -36476,7 +36480,7 @@
     </row>
     <row r="621" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A621" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B621" s="11" t="s">
         <v>8</v>
@@ -36493,7 +36497,7 @@
     </row>
     <row r="622" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A622" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B622" s="11" t="s">
         <v>8</v>
@@ -36510,7 +36514,7 @@
     </row>
     <row r="623" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A623" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B623" s="11" t="s">
         <v>8</v>
@@ -36530,7 +36534,7 @@
     </row>
     <row r="624" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A624" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B624" s="11" t="s">
         <v>8</v>
@@ -36550,7 +36554,7 @@
     </row>
     <row r="625" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A625" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B625" s="11" t="s">
         <v>8</v>
@@ -36570,7 +36574,7 @@
     </row>
     <row r="626" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A626" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B626" s="13" t="s">
         <v>8</v>
@@ -36590,7 +36594,7 @@
     </row>
     <row r="627" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A627" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B627" s="13" t="s">
         <v>8</v>
@@ -36610,7 +36614,7 @@
     </row>
     <row r="628" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A628" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B628" s="13" t="s">
         <v>8</v>
@@ -36630,7 +36634,7 @@
     </row>
     <row r="629" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A629" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B629" s="13" t="s">
         <v>8</v>
@@ -36647,7 +36651,7 @@
     </row>
     <row r="630" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A630" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B630" s="13" t="s">
         <v>8</v>
@@ -36664,7 +36668,7 @@
     </row>
     <row r="631" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A631" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B631" s="13" t="s">
         <v>8</v>
@@ -36681,7 +36685,7 @@
     </row>
     <row r="632" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A632" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B632" s="13" t="s">
         <v>8</v>
@@ -36701,7 +36705,7 @@
     </row>
     <row r="633" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A633" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B633" s="13" t="s">
         <v>8</v>
@@ -36721,7 +36725,7 @@
     </row>
     <row r="634" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A634" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B634" s="13" t="s">
         <v>8</v>
@@ -36741,7 +36745,7 @@
     </row>
     <row r="635" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A635" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B635" s="13" t="s">
         <v>8</v>
@@ -36758,7 +36762,7 @@
     </row>
     <row r="636" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A636" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B636" s="13" t="s">
         <v>8</v>
@@ -36775,7 +36779,7 @@
     </row>
     <row r="637" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A637" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B637" s="13" t="s">
         <v>8</v>
@@ -36792,7 +36796,7 @@
     </row>
     <row r="638" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A638" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B638" s="13" t="s">
         <v>8</v>
@@ -36809,7 +36813,7 @@
     </row>
     <row r="639" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A639" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B639" s="13" t="s">
         <v>8</v>
@@ -36826,7 +36830,7 @@
     </row>
     <row r="640" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A640" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B640" s="13" t="s">
         <v>8</v>
@@ -36843,7 +36847,7 @@
     </row>
     <row r="641" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A641" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B641" s="13" t="s">
         <v>8</v>
@@ -36863,7 +36867,7 @@
     </row>
     <row r="642" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A642" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B642" s="13" t="s">
         <v>8</v>
@@ -36883,7 +36887,7 @@
     </row>
     <row r="643" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A643" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B643" s="13" t="s">
         <v>8</v>
@@ -36903,7 +36907,7 @@
     </row>
     <row r="644" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A644" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B644" s="11" t="s">
         <v>8</v>
@@ -36920,7 +36924,7 @@
     </row>
     <row r="645" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A645" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B645" s="11" t="s">
         <v>8</v>
@@ -36937,7 +36941,7 @@
     </row>
     <row r="646" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A646" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B646" s="11" t="s">
         <v>8</v>
@@ -36954,7 +36958,7 @@
     </row>
     <row r="647" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A647" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B647" s="11" t="s">
         <v>8</v>
@@ -36971,7 +36975,7 @@
     </row>
     <row r="648" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A648" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B648" s="11" t="s">
         <v>8</v>
@@ -36988,7 +36992,7 @@
     </row>
     <row r="649" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A649" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B649" s="11" t="s">
         <v>8</v>
@@ -37005,7 +37009,7 @@
     </row>
     <row r="650" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A650" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B650" s="11" t="s">
         <v>8</v>
@@ -37022,7 +37026,7 @@
     </row>
     <row r="651" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A651" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B651" s="11" t="s">
         <v>8</v>
@@ -37039,7 +37043,7 @@
     </row>
     <row r="652" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A652" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B652" s="11" t="s">
         <v>8</v>
@@ -37056,7 +37060,7 @@
     </row>
     <row r="653" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A653" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B653" s="13" t="s">
         <v>8</v>
@@ -37076,7 +37080,7 @@
     </row>
     <row r="654" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A654" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B654" s="13" t="s">
         <v>8</v>
@@ -37096,7 +37100,7 @@
     </row>
     <row r="655" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A655" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B655" s="13" t="s">
         <v>8</v>
@@ -37116,7 +37120,7 @@
     </row>
     <row r="656" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A656" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B656" s="11" t="s">
         <v>8</v>
@@ -37133,7 +37137,7 @@
     </row>
     <row r="657" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A657" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B657" s="11" t="s">
         <v>8</v>
@@ -37150,7 +37154,7 @@
     </row>
     <row r="658" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A658" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B658" s="11" t="s">
         <v>8</v>
@@ -37167,7 +37171,7 @@
     </row>
     <row r="659" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A659" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B659" s="13" t="s">
         <v>8</v>
@@ -37187,7 +37191,7 @@
     </row>
     <row r="660" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A660" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B660" s="13" t="s">
         <v>8</v>
@@ -37207,7 +37211,7 @@
     </row>
     <row r="661" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A661" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B661" s="13" t="s">
         <v>8</v>
@@ -37227,7 +37231,7 @@
     </row>
     <row r="662" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A662" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B662" s="13" t="s">
         <v>8</v>
@@ -37247,7 +37251,7 @@
     </row>
     <row r="663" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A663" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B663" s="13" t="s">
         <v>8</v>
@@ -37267,7 +37271,7 @@
     </row>
     <row r="664" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A664" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B664" s="13" t="s">
         <v>8</v>
@@ -37287,7 +37291,7 @@
     </row>
     <row r="665" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A665" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B665" s="13" t="s">
         <v>8</v>
@@ -37307,7 +37311,7 @@
     </row>
     <row r="666" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A666" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B666" s="13" t="s">
         <v>8</v>
@@ -37327,7 +37331,7 @@
     </row>
     <row r="667" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A667" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B667" s="13" t="s">
         <v>8</v>
@@ -37347,7 +37351,7 @@
     </row>
     <row r="668" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A668" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B668" s="13" t="s">
         <v>8</v>
@@ -37367,7 +37371,7 @@
     </row>
     <row r="669" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A669" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B669" s="13" t="s">
         <v>8</v>
@@ -37387,7 +37391,7 @@
     </row>
     <row r="670" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A670" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B670" s="13" t="s">
         <v>8</v>
@@ -37407,7 +37411,7 @@
     </row>
     <row r="671" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A671" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B671" s="13" t="s">
         <v>8</v>
@@ -37424,7 +37428,7 @@
     </row>
     <row r="672" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A672" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B672" s="13" t="s">
         <v>8</v>
@@ -37441,7 +37445,7 @@
     </row>
     <row r="673" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A673" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B673" s="13" t="s">
         <v>8</v>
@@ -37458,7 +37462,7 @@
     </row>
     <row r="674" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A674" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B674" s="11" t="s">
         <v>8</v>
@@ -37475,7 +37479,7 @@
     </row>
     <row r="675" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A675" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B675" s="11" t="s">
         <v>8</v>
@@ -37492,7 +37496,7 @@
     </row>
     <row r="676" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A676" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B676" s="11" t="s">
         <v>8</v>
@@ -37509,7 +37513,7 @@
     </row>
     <row r="677" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A677" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B677" s="13" t="s">
         <v>8</v>
@@ -37529,7 +37533,7 @@
     </row>
     <row r="678" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A678" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B678" s="13" t="s">
         <v>8</v>
@@ -37549,7 +37553,7 @@
     </row>
     <row r="679" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A679" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B679" s="13" t="s">
         <v>8</v>
@@ -37569,7 +37573,7 @@
     </row>
     <row r="680" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A680" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B680" s="11" t="s">
         <v>8</v>
@@ -37586,7 +37590,7 @@
     </row>
     <row r="681" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A681" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B681" s="11" t="s">
         <v>8</v>
@@ -37603,7 +37607,7 @@
     </row>
     <row r="682" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A682" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B682" s="11" t="s">
         <v>8</v>
@@ -37620,7 +37624,7 @@
     </row>
     <row r="683" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A683" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B683" s="11" t="s">
         <v>8</v>
@@ -37637,7 +37641,7 @@
     </row>
     <row r="684" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A684" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B684" s="13" t="s">
         <v>8</v>
@@ -37654,7 +37658,7 @@
     </row>
     <row r="685" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A685" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B685" s="11" t="s">
         <v>8</v>
@@ -37671,7 +37675,7 @@
     </row>
     <row r="686" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A686" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B686" s="13" t="s">
         <v>8</v>
@@ -37691,7 +37695,7 @@
     </row>
     <row r="687" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A687" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B687" s="13" t="s">
         <v>8</v>
@@ -37711,7 +37715,7 @@
     </row>
     <row r="688" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A688" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B688" s="13" t="s">
         <v>8</v>
@@ -37731,7 +37735,7 @@
     </row>
     <row r="689" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A689" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B689" s="13" t="s">
         <v>8</v>
@@ -37748,7 +37752,7 @@
     </row>
     <row r="690" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A690" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B690" s="11" t="s">
         <v>8</v>
@@ -37765,7 +37769,7 @@
     </row>
     <row r="691" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A691" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B691" s="13" t="s">
         <v>8</v>
@@ -37785,7 +37789,7 @@
     </row>
     <row r="692" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A692" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B692" s="11" t="s">
         <v>8</v>
@@ -37802,7 +37806,7 @@
     </row>
     <row r="693" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A693" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B693" s="11" t="s">
         <v>8</v>
@@ -37822,7 +37826,7 @@
     </row>
     <row r="694" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A694" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B694" s="13" t="s">
         <v>8</v>
@@ -37842,7 +37846,7 @@
     </row>
     <row r="695" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A695" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B695" s="13" t="s">
         <v>8</v>
@@ -37859,7 +37863,7 @@
     </row>
     <row r="696" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A696" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B696" s="13" t="s">
         <v>8</v>
@@ -37876,7 +37880,7 @@
     </row>
     <row r="697" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A697" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B697" s="11" t="s">
         <v>8</v>
@@ -37893,7 +37897,7 @@
     </row>
     <row r="698" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A698" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B698" s="11" t="s">
         <v>8</v>
@@ -37910,7 +37914,7 @@
     </row>
     <row r="699" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A699" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B699" s="13" t="s">
         <v>8</v>
@@ -37930,7 +37934,7 @@
     </row>
     <row r="700" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A700" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B700" s="13" t="s">
         <v>8</v>
@@ -37950,7 +37954,7 @@
     </row>
     <row r="701" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A701" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B701" s="11" t="s">
         <v>8</v>
@@ -37967,7 +37971,7 @@
     </row>
     <row r="702" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A702" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B702" s="11" t="s">
         <v>8</v>
@@ -37984,7 +37988,7 @@
     </row>
     <row r="703" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A703" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B703" s="11" t="s">
         <v>8</v>
@@ -38001,7 +38005,7 @@
     </row>
     <row r="704" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A704" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B704" s="11" t="s">
         <v>8</v>
@@ -38021,7 +38025,7 @@
     </row>
     <row r="705" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A705" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B705" s="13" t="s">
         <v>8</v>
@@ -38041,7 +38045,7 @@
     </row>
     <row r="706" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A706" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B706" s="13" t="s">
         <v>8</v>
@@ -38101,7 +38105,7 @@
     </row>
     <row r="709" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A709" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B709" s="13" t="s">
         <v>8</v>
@@ -38161,7 +38165,7 @@
     </row>
     <row r="712" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A712" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B712" s="13" t="s">
         <v>8</v>
@@ -38181,7 +38185,7 @@
     </row>
     <row r="713" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A713" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B713" s="11" t="s">
         <v>8</v>
@@ -38198,7 +38202,7 @@
     </row>
     <row r="714" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A714" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B714" s="11" t="s">
         <v>8</v>
@@ -38215,7 +38219,7 @@
     </row>
     <row r="715" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A715" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B715" s="11" t="s">
         <v>8</v>
@@ -38232,7 +38236,7 @@
     </row>
     <row r="716" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A716" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B716" s="13" t="s">
         <v>8</v>
@@ -38249,7 +38253,7 @@
     </row>
     <row r="717" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A717" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B717" s="13" t="s">
         <v>8</v>
@@ -38266,7 +38270,7 @@
     </row>
     <row r="718" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A718" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B718" s="13" t="s">
         <v>8</v>
@@ -38283,7 +38287,7 @@
     </row>
     <row r="719" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A719" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B719" s="11" t="s">
         <v>8</v>
@@ -38300,7 +38304,7 @@
     </row>
     <row r="720" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A720" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B720" s="11" t="s">
         <v>8</v>
@@ -38317,7 +38321,7 @@
     </row>
     <row r="721" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A721" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B721" s="11" t="s">
         <v>8</v>
@@ -38334,7 +38338,7 @@
     </row>
     <row r="722" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A722" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B722" s="11" t="s">
         <v>8</v>
@@ -38351,7 +38355,7 @@
     </row>
     <row r="723" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A723" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B723" s="11" t="s">
         <v>8</v>
@@ -38368,7 +38372,7 @@
     </row>
     <row r="724" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A724" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B724" s="13" t="s">
         <v>8</v>
@@ -38385,7 +38389,7 @@
     </row>
     <row r="725" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A725" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B725" s="11" t="s">
         <v>8</v>
@@ -38402,7 +38406,7 @@
     </row>
     <row r="726" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A726" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B726" s="11" t="s">
         <v>8</v>
@@ -38419,7 +38423,7 @@
     </row>
     <row r="727" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A727" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B727" s="11" t="s">
         <v>8</v>
@@ -38436,7 +38440,7 @@
     </row>
     <row r="728" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A728" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B728" s="13" t="s">
         <v>8</v>
@@ -38456,7 +38460,7 @@
     </row>
     <row r="729" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A729" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B729" s="13" t="s">
         <v>8</v>
@@ -38473,7 +38477,7 @@
     </row>
     <row r="730" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A730" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B730" s="13" t="s">
         <v>8</v>
@@ -38490,7 +38494,7 @@
     </row>
     <row r="731" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A731" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B731" s="13" t="s">
         <v>8</v>
@@ -38507,7 +38511,7 @@
     </row>
     <row r="732" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A732" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B732" s="13" t="s">
         <v>8</v>
@@ -38524,7 +38528,7 @@
     </row>
     <row r="733" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A733" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B733" s="13" t="s">
         <v>8</v>
@@ -38541,7 +38545,7 @@
     </row>
     <row r="734" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A734" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B734" s="13" t="s">
         <v>8</v>
@@ -38558,7 +38562,7 @@
     </row>
     <row r="735" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A735" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B735" s="13" t="s">
         <v>8</v>
@@ -38678,7 +38682,7 @@
     </row>
     <row r="741" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A741" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B741" s="13" t="s">
         <v>8</v>
@@ -38698,7 +38702,7 @@
     </row>
     <row r="742" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A742" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B742" s="13" t="s">
         <v>8</v>
@@ -38715,7 +38719,7 @@
     </row>
     <row r="743" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A743" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B743" s="13" t="s">
         <v>8</v>
@@ -38732,7 +38736,7 @@
     </row>
     <row r="744" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A744" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B744" s="13" t="s">
         <v>8</v>
@@ -38749,7 +38753,7 @@
     </row>
     <row r="745" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A745" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B745" s="13" t="s">
         <v>8</v>
@@ -38766,7 +38770,7 @@
     </row>
     <row r="746" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A746" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B746" s="13" t="s">
         <v>8</v>
@@ -38783,7 +38787,7 @@
     </row>
     <row r="747" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A747" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B747" s="11" t="s">
         <v>8</v>
@@ -38800,7 +38804,7 @@
     </row>
     <row r="748" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A748" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B748" s="7" t="s">
         <v>8</v>
@@ -38820,7 +38824,7 @@
     </row>
     <row r="749" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A749" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B749" s="11" t="s">
         <v>8</v>
@@ -38840,7 +38844,7 @@
     </row>
     <row r="750" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A750" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B750" s="11" t="s">
         <v>8</v>
@@ -38860,7 +38864,7 @@
     </row>
     <row r="751" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A751" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B751" s="11" t="s">
         <v>8</v>
@@ -38880,7 +38884,7 @@
     </row>
     <row r="752" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A752" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B752" s="11" t="s">
         <v>8</v>
@@ -38900,7 +38904,7 @@
     </row>
     <row r="753" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A753" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B753" s="11" t="s">
         <v>8</v>
@@ -38920,7 +38924,7 @@
     </row>
     <row r="754" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A754" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B754" s="11" t="s">
         <v>8</v>
@@ -38940,7 +38944,7 @@
     </row>
     <row r="755" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A755" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B755" s="13" t="s">
         <v>8</v>
@@ -38957,7 +38961,7 @@
     </row>
     <row r="756" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A756" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B756" s="13" t="s">
         <v>8</v>
@@ -38974,7 +38978,7 @@
     </row>
     <row r="757" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A757" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B757" s="13" t="s">
         <v>8</v>
@@ -38991,7 +38995,7 @@
     </row>
     <row r="758" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A758" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B758" s="13" t="s">
         <v>8</v>
@@ -39008,7 +39012,7 @@
     </row>
     <row r="759" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A759" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B759" s="13" t="s">
         <v>8</v>
@@ -39025,7 +39029,7 @@
     </row>
     <row r="760" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A760" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B760" s="13" t="s">
         <v>8</v>
@@ -39042,7 +39046,7 @@
     </row>
     <row r="761" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A761" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B761" s="13" t="s">
         <v>8</v>
@@ -39062,7 +39066,7 @@
     </row>
     <row r="762" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A762" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B762" s="13" t="s">
         <v>8</v>
@@ -39082,7 +39086,7 @@
     </row>
     <row r="763" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A763" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B763" s="13" t="s">
         <v>8</v>
@@ -39102,7 +39106,7 @@
     </row>
     <row r="764" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A764" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B764" s="13" t="s">
         <v>8</v>
@@ -39122,7 +39126,7 @@
     </row>
     <row r="765" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A765" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B765" s="13" t="s">
         <v>8</v>
@@ -39142,7 +39146,7 @@
     </row>
     <row r="766" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A766" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B766" s="13" t="s">
         <v>8</v>
@@ -39162,7 +39166,7 @@
     </row>
     <row r="767" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A767" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B767" s="13" t="s">
         <v>8</v>
@@ -39182,7 +39186,7 @@
     </row>
     <row r="768" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A768" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B768" s="13" t="s">
         <v>8</v>
@@ -39202,7 +39206,7 @@
     </row>
     <row r="769" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A769" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B769" s="13" t="s">
         <v>8</v>
@@ -39222,7 +39226,7 @@
     </row>
     <row r="770" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A770" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B770" s="13" t="s">
         <v>8</v>
@@ -39242,7 +39246,7 @@
     </row>
     <row r="771" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A771" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B771" s="13" t="s">
         <v>8</v>
@@ -39262,7 +39266,7 @@
     </row>
     <row r="772" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A772" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B772" s="13" t="s">
         <v>8</v>
@@ -39282,7 +39286,7 @@
     </row>
     <row r="773" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A773" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B773" s="13" t="s">
         <v>8</v>
@@ -39302,7 +39306,7 @@
     </row>
     <row r="774" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A774" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B774" s="13" t="s">
         <v>8</v>
@@ -39322,7 +39326,7 @@
     </row>
     <row r="775" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A775" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B775" s="13" t="s">
         <v>8</v>
@@ -39342,7 +39346,7 @@
     </row>
     <row r="776" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A776" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B776" s="13" t="s">
         <v>8</v>
@@ -39362,7 +39366,7 @@
     </row>
     <row r="777" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A777" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B777" s="13" t="s">
         <v>8</v>
@@ -39382,7 +39386,7 @@
     </row>
     <row r="778" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A778" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B778" s="13" t="s">
         <v>8</v>
@@ -39402,7 +39406,7 @@
     </row>
     <row r="779" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A779" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B779" s="13" t="s">
         <v>8</v>
@@ -39422,7 +39426,7 @@
     </row>
     <row r="780" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A780" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B780" s="13" t="s">
         <v>8</v>
@@ -39442,7 +39446,7 @@
     </row>
     <row r="781" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A781" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B781" s="13" t="s">
         <v>8</v>
@@ -39462,7 +39466,7 @@
     </row>
     <row r="782" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A782" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B782" s="13" t="s">
         <v>8</v>
@@ -39482,7 +39486,7 @@
     </row>
     <row r="783" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A783" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B783" s="13" t="s">
         <v>8</v>
@@ -39502,7 +39506,7 @@
     </row>
     <row r="784" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A784" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B784" s="13" t="s">
         <v>8</v>
@@ -39522,7 +39526,7 @@
     </row>
     <row r="785" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A785" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B785" s="11" t="s">
         <v>8</v>
@@ -39539,7 +39543,7 @@
     </row>
     <row r="786" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A786" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B786" s="11" t="s">
         <v>8</v>
@@ -39556,7 +39560,7 @@
     </row>
     <row r="787" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A787" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B787" s="11" t="s">
         <v>8</v>
@@ -39573,7 +39577,7 @@
     </row>
     <row r="788" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A788" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B788" s="11" t="s">
         <v>8</v>
@@ -39590,7 +39594,7 @@
     </row>
     <row r="789" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A789" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B789" s="11" t="s">
         <v>8</v>
@@ -39607,7 +39611,7 @@
     </row>
     <row r="790" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A790" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B790" s="11" t="s">
         <v>8</v>
@@ -39624,7 +39628,7 @@
     </row>
     <row r="791" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A791" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B791" s="11" t="s">
         <v>8</v>
@@ -39641,7 +39645,7 @@
     </row>
     <row r="792" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A792" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B792" s="11" t="s">
         <v>8</v>
@@ -39658,7 +39662,7 @@
     </row>
     <row r="793" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A793" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B793" s="11" t="s">
         <v>8</v>
@@ -39675,7 +39679,7 @@
     </row>
     <row r="794" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A794" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B794" s="11" t="s">
         <v>8</v>
@@ -39692,7 +39696,7 @@
     </row>
     <row r="795" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A795" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B795" s="11" t="s">
         <v>8</v>
@@ -39709,7 +39713,7 @@
     </row>
     <row r="796" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A796" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B796" s="11" t="s">
         <v>8</v>
@@ -39726,7 +39730,7 @@
     </row>
     <row r="797" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A797" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B797" s="11" t="s">
         <v>8</v>
@@ -39743,7 +39747,7 @@
     </row>
     <row r="798" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A798" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B798" s="11" t="s">
         <v>8</v>
@@ -39760,7 +39764,7 @@
     </row>
     <row r="799" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A799" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B799" s="11" t="s">
         <v>8</v>
@@ -39777,7 +39781,7 @@
     </row>
     <row r="800" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A800" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B800" s="11" t="s">
         <v>8</v>
@@ -39794,7 +39798,7 @@
     </row>
     <row r="801" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A801" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B801" s="11" t="s">
         <v>8</v>
@@ -39811,7 +39815,7 @@
     </row>
     <row r="802" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A802" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B802" s="11" t="s">
         <v>8</v>
@@ -39828,7 +39832,7 @@
     </row>
     <row r="803" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A803" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B803" s="11" t="s">
         <v>8</v>
@@ -39845,7 +39849,7 @@
     </row>
     <row r="804" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A804" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B804" s="11" t="s">
         <v>8</v>
@@ -39862,7 +39866,7 @@
     </row>
     <row r="805" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A805" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B805" s="11" t="s">
         <v>8</v>
@@ -39879,7 +39883,7 @@
     </row>
     <row r="806" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A806" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B806" s="11" t="s">
         <v>8</v>
@@ -39896,7 +39900,7 @@
     </row>
     <row r="807" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A807" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B807" s="11" t="s">
         <v>8</v>
@@ -39913,7 +39917,7 @@
     </row>
     <row r="808" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A808" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B808" s="11" t="s">
         <v>8</v>
@@ -39930,7 +39934,7 @@
     </row>
     <row r="809" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A809" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B809" s="11" t="s">
         <v>8</v>
@@ -39947,7 +39951,7 @@
     </row>
     <row r="810" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A810" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B810" s="11" t="s">
         <v>8</v>
@@ -39964,7 +39968,7 @@
     </row>
     <row r="811" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A811" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B811" s="11" t="s">
         <v>8</v>
@@ -39981,7 +39985,7 @@
     </row>
     <row r="812" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A812" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B812" s="11" t="s">
         <v>8</v>
@@ -39998,7 +40002,7 @@
     </row>
     <row r="813" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A813" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B813" s="11" t="s">
         <v>8</v>
@@ -40015,7 +40019,7 @@
     </row>
     <row r="814" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A814" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B814" s="11" t="s">
         <v>8</v>
@@ -40032,7 +40036,7 @@
     </row>
     <row r="815" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A815" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B815" s="11" t="s">
         <v>8</v>
@@ -40049,7 +40053,7 @@
     </row>
     <row r="816" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A816" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B816" s="11" t="s">
         <v>8</v>
@@ -40066,7 +40070,7 @@
     </row>
     <row r="817" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A817" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B817" s="11" t="s">
         <v>8</v>
@@ -40083,7 +40087,7 @@
     </row>
     <row r="818" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A818" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B818" s="11" t="s">
         <v>8</v>
@@ -40100,7 +40104,7 @@
     </row>
     <row r="819" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A819" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B819" s="11" t="s">
         <v>8</v>
@@ -40117,7 +40121,7 @@
     </row>
     <row r="820" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A820" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B820" s="11" t="s">
         <v>8</v>
@@ -40134,7 +40138,7 @@
     </row>
     <row r="821" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A821" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B821" s="11" t="s">
         <v>8</v>
@@ -40151,7 +40155,7 @@
     </row>
     <row r="822" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A822" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B822" s="11" t="s">
         <v>8</v>
@@ -40168,7 +40172,7 @@
     </row>
     <row r="823" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A823" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B823" s="11" t="s">
         <v>8</v>
@@ -40185,7 +40189,7 @@
     </row>
     <row r="824" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A824" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B824" s="11" t="s">
         <v>8</v>
@@ -40202,7 +40206,7 @@
     </row>
     <row r="825" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A825" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B825" s="11" t="s">
         <v>8</v>
@@ -40219,7 +40223,7 @@
     </row>
     <row r="826" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A826" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B826" s="11" t="s">
         <v>8</v>
@@ -40236,7 +40240,7 @@
     </row>
     <row r="827" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A827" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B827" s="11" t="s">
         <v>8</v>
@@ -40253,7 +40257,7 @@
     </row>
     <row r="828" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A828" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B828" s="11" t="s">
         <v>8</v>
@@ -40270,7 +40274,7 @@
     </row>
     <row r="829" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A829" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B829" s="11" t="s">
         <v>8</v>
@@ -40287,7 +40291,7 @@
     </row>
     <row r="830" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A830" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B830" s="11" t="s">
         <v>8</v>
@@ -40304,7 +40308,7 @@
     </row>
     <row r="831" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A831" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B831" s="13" t="s">
         <v>8</v>
@@ -40321,7 +40325,7 @@
     </row>
     <row r="832" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A832" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B832" s="13" t="s">
         <v>8</v>
@@ -40338,7 +40342,7 @@
     </row>
     <row r="833" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A833" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B833" s="13" t="s">
         <v>8</v>
@@ -40395,7 +40399,7 @@
     </row>
     <row r="836" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A836" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B836" s="13" t="s">
         <v>8</v>
@@ -40412,7 +40416,7 @@
     </row>
     <row r="837" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A837" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B837" s="13" t="s">
         <v>8</v>
@@ -40429,7 +40433,7 @@
     </row>
     <row r="838" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A838" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B838" s="13" t="s">
         <v>8</v>
@@ -40446,7 +40450,7 @@
     </row>
     <row r="839" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A839" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B839" s="11" t="s">
         <v>8</v>
@@ -40463,7 +40467,7 @@
     </row>
     <row r="840" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A840" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B840" s="11" t="s">
         <v>8</v>
@@ -40480,7 +40484,7 @@
     </row>
     <row r="841" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A841" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B841" s="11" t="s">
         <v>8</v>
@@ -40497,7 +40501,7 @@
     </row>
     <row r="842" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A842" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B842" s="11" t="s">
         <v>8</v>
@@ -40514,7 +40518,7 @@
     </row>
     <row r="843" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A843" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B843" s="11" t="s">
         <v>8</v>
@@ -40531,7 +40535,7 @@
     </row>
     <row r="844" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A844" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B844" s="11" t="s">
         <v>8</v>
@@ -40548,7 +40552,7 @@
     </row>
     <row r="845" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A845" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B845" s="11" t="s">
         <v>8</v>
@@ -40565,7 +40569,7 @@
     </row>
     <row r="846" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A846" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B846" s="11" t="s">
         <v>8</v>
@@ -40582,7 +40586,7 @@
     </row>
     <row r="847" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A847" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B847" s="11" t="s">
         <v>8</v>
@@ -40599,7 +40603,7 @@
     </row>
     <row r="848" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A848" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B848" s="13" t="s">
         <v>8</v>
@@ -40616,7 +40620,7 @@
     </row>
     <row r="849" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A849" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B849" s="11" t="s">
         <v>8</v>
@@ -40633,7 +40637,7 @@
     </row>
     <row r="850" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A850" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B850" s="11" t="s">
         <v>8</v>
@@ -40650,7 +40654,7 @@
     </row>
     <row r="851" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A851" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B851" s="11" t="s">
         <v>8</v>
@@ -40667,7 +40671,7 @@
     </row>
     <row r="852" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A852" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B852" s="13" t="s">
         <v>8</v>
@@ -40687,7 +40691,7 @@
     </row>
     <row r="853" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A853" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B853" s="13" t="s">
         <v>8</v>
@@ -40707,7 +40711,7 @@
     </row>
     <row r="854" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A854" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B854" s="13" t="s">
         <v>8</v>
@@ -40727,7 +40731,7 @@
     </row>
     <row r="855" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A855" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B855" s="7" t="s">
         <v>8</v>
@@ -40747,7 +40751,7 @@
     </row>
     <row r="856" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A856" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B856" s="7" t="s">
         <v>8</v>
@@ -40767,7 +40771,7 @@
     </row>
     <row r="857" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A857" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B857" s="7" t="s">
         <v>8</v>
@@ -40787,7 +40791,7 @@
     </row>
     <row r="858" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A858" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B858" s="13" t="s">
         <v>8</v>
@@ -40804,7 +40808,7 @@
     </row>
     <row r="859" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A859" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B859" s="13" t="s">
         <v>8</v>
@@ -40821,7 +40825,7 @@
     </row>
     <row r="860" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A860" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B860" s="13" t="s">
         <v>8</v>
@@ -40838,7 +40842,7 @@
     </row>
     <row r="861" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A861" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B861" s="7" t="s">
         <v>8</v>
@@ -40858,7 +40862,7 @@
     </row>
     <row r="862" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A862" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B862" s="7" t="s">
         <v>8</v>
@@ -40878,7 +40882,7 @@
     </row>
     <row r="863" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A863" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B863" s="7" t="s">
         <v>8</v>
@@ -40898,7 +40902,7 @@
     </row>
     <row r="864" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A864" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B864" s="7" t="s">
         <v>8</v>
@@ -40918,7 +40922,7 @@
     </row>
     <row r="865" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A865" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B865" s="7" t="s">
         <v>8</v>
@@ -40938,7 +40942,7 @@
     </row>
     <row r="866" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A866" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B866" s="7" t="s">
         <v>8</v>
@@ -40958,7 +40962,7 @@
     </row>
     <row r="867" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A867" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B867" s="7" t="s">
         <v>8</v>
@@ -40978,7 +40982,7 @@
     </row>
     <row r="868" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A868" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B868" s="7" t="s">
         <v>8</v>
@@ -40998,7 +41002,7 @@
     </row>
     <row r="869" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A869" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B869" s="7" t="s">
         <v>8</v>
@@ -41018,7 +41022,7 @@
     </row>
     <row r="870" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A870" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B870" s="7" t="s">
         <v>8</v>
@@ -41038,7 +41042,7 @@
     </row>
     <row r="871" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A871" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B871" s="7" t="s">
         <v>8</v>
@@ -41058,7 +41062,7 @@
     </row>
     <row r="872" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A872" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B872" s="7" t="s">
         <v>8</v>
@@ -41078,7 +41082,7 @@
     </row>
     <row r="873" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A873" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B873" s="7" t="s">
         <v>8</v>
@@ -41098,7 +41102,7 @@
     </row>
     <row r="874" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A874" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B874" s="7" t="s">
         <v>8</v>
@@ -41118,7 +41122,7 @@
     </row>
     <row r="875" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A875" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B875" s="7" t="s">
         <v>8</v>
@@ -41138,7 +41142,7 @@
     </row>
     <row r="876" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A876" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B876" s="7" t="s">
         <v>8</v>
@@ -41158,7 +41162,7 @@
     </row>
     <row r="877" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A877" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B877" s="7" t="s">
         <v>8</v>
@@ -41178,7 +41182,7 @@
     </row>
     <row r="878" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A878" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B878" s="7" t="s">
         <v>8</v>
@@ -41198,7 +41202,7 @@
     </row>
     <row r="879" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A879" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B879" s="7" t="s">
         <v>8</v>
@@ -41218,7 +41222,7 @@
     </row>
     <row r="880" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A880" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B880" s="13" t="s">
         <v>8</v>
@@ -41238,7 +41242,7 @@
     </row>
     <row r="881" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A881" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B881" s="7" t="s">
         <v>8</v>
@@ -41258,7 +41262,7 @@
     </row>
     <row r="882" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A882" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B882" s="7" t="s">
         <v>8</v>
@@ -41278,7 +41282,7 @@
     </row>
     <row r="883" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A883" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B883" s="7" t="s">
         <v>8</v>
@@ -41298,7 +41302,7 @@
     </row>
     <row r="884" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A884" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B884" s="7" t="s">
         <v>8</v>
@@ -41318,7 +41322,7 @@
     </row>
     <row r="885" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A885" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B885" s="11" t="s">
         <v>8</v>
@@ -41335,7 +41339,7 @@
     </row>
     <row r="886" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A886" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B886" s="7" t="s">
         <v>8</v>
@@ -41355,7 +41359,7 @@
     </row>
     <row r="887" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A887" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B887" s="7" t="s">
         <v>8</v>
@@ -41375,7 +41379,7 @@
     </row>
     <row r="888" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A888" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B888" s="7" t="s">
         <v>8</v>
@@ -41395,7 +41399,7 @@
     </row>
     <row r="889" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A889" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B889" s="7" t="s">
         <v>8</v>
@@ -41415,7 +41419,7 @@
     </row>
     <row r="890" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A890" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B890" s="13" t="s">
         <v>8</v>
@@ -41435,7 +41439,7 @@
     </row>
     <row r="891" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A891" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B891" s="13" t="s">
         <v>8</v>
@@ -41455,7 +41459,7 @@
     </row>
     <row r="892" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A892" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B892" s="7" t="s">
         <v>8</v>
@@ -41475,7 +41479,7 @@
     </row>
     <row r="893" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A893" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B893" s="7" t="s">
         <v>8</v>
@@ -41495,7 +41499,7 @@
     </row>
     <row r="894" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A894" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B894" s="7" t="s">
         <v>8</v>
@@ -41515,7 +41519,7 @@
     </row>
     <row r="895" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A895" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B895" s="7" t="s">
         <v>8</v>
@@ -41535,7 +41539,7 @@
     </row>
     <row r="896" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A896" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B896" s="7" t="s">
         <v>8</v>
@@ -41555,7 +41559,7 @@
     </row>
     <row r="897" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A897" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B897" s="7" t="s">
         <v>8</v>
@@ -41575,7 +41579,7 @@
     </row>
     <row r="898" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A898" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B898" s="7" t="s">
         <v>8</v>
@@ -41595,7 +41599,7 @@
     </row>
     <row r="899" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A899" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B899" s="7" t="s">
         <v>8</v>
@@ -41655,7 +41659,7 @@
     </row>
     <row r="902" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A902" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B902" s="13" t="s">
         <v>8</v>
@@ -41672,7 +41676,7 @@
     </row>
     <row r="903" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A903" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B903" s="13" t="s">
         <v>8</v>
@@ -41709,7 +41713,7 @@
     </row>
     <row r="905" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A905" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B905" s="11" t="s">
         <v>8</v>
@@ -41726,7 +41730,7 @@
     </row>
     <row r="906" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A906" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B906" s="11" t="s">
         <v>8</v>
@@ -41743,7 +41747,7 @@
     </row>
     <row r="907" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A907" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B907" s="11" t="s">
         <v>8</v>
@@ -41760,7 +41764,7 @@
     </row>
     <row r="908" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A908" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B908" s="11" t="s">
         <v>8</v>
@@ -41777,7 +41781,7 @@
     </row>
     <row r="909" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A909" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B909" s="11" t="s">
         <v>8</v>
@@ -41794,7 +41798,7 @@
     </row>
     <row r="910" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A910" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B910" s="11" t="s">
         <v>8</v>
@@ -41811,7 +41815,7 @@
     </row>
     <row r="911" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A911" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B911" s="11" t="s">
         <v>8</v>
@@ -41828,7 +41832,7 @@
     </row>
     <row r="912" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A912" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B912" s="11" t="s">
         <v>8</v>
@@ -41845,7 +41849,7 @@
     </row>
     <row r="913" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A913" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B913" s="11" t="s">
         <v>8</v>
@@ -41862,7 +41866,7 @@
     </row>
     <row r="914" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A914" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B914" s="11" t="s">
         <v>8</v>
@@ -41879,7 +41883,7 @@
     </row>
     <row r="915" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A915" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B915" s="13" t="s">
         <v>8</v>
@@ -41896,7 +41900,7 @@
     </row>
     <row r="916" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A916" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B916" s="11" t="s">
         <v>8</v>
@@ -41913,7 +41917,7 @@
     </row>
     <row r="917" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A917" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B917" s="11" t="s">
         <v>8</v>
@@ -41930,7 +41934,7 @@
     </row>
     <row r="918" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A918" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B918" s="13" t="s">
         <v>8</v>
@@ -41947,7 +41951,7 @@
     </row>
     <row r="919" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A919" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B919" s="13" t="s">
         <v>8</v>
@@ -41964,7 +41968,7 @@
     </row>
     <row r="920" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A920" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B920" s="11" t="s">
         <v>8</v>
@@ -41981,7 +41985,7 @@
     </row>
     <row r="921" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A921" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B921" s="11" t="s">
         <v>8</v>
@@ -41998,7 +42002,7 @@
     </row>
     <row r="922" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A922" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B922" s="11" t="s">
         <v>8</v>
@@ -42015,7 +42019,7 @@
     </row>
     <row r="923" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A923" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B923" s="11" t="s">
         <v>8</v>
@@ -42032,7 +42036,7 @@
     </row>
     <row r="924" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A924" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B924" s="11" t="s">
         <v>8</v>
@@ -42049,7 +42053,7 @@
     </row>
     <row r="925" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A925" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B925" s="11" t="s">
         <v>8</v>
@@ -42066,7 +42070,7 @@
     </row>
     <row r="926" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A926" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B926" s="11" t="s">
         <v>8</v>
@@ -42083,7 +42087,7 @@
     </row>
     <row r="927" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A927" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B927" s="11" t="s">
         <v>8</v>
@@ -42100,7 +42104,7 @@
     </row>
     <row r="928" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A928" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B928" s="11" t="s">
         <v>8</v>
@@ -42117,7 +42121,7 @@
     </row>
     <row r="929" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A929" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B929" s="11" t="s">
         <v>8</v>
@@ -42134,7 +42138,7 @@
     </row>
     <row r="930" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A930" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B930" s="7" t="s">
         <v>8</v>
@@ -42154,7 +42158,7 @@
     </row>
     <row r="931" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A931" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B931" s="7" t="s">
         <v>8</v>
@@ -42174,7 +42178,7 @@
     </row>
     <row r="932" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A932" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B932" s="7" t="s">
         <v>8</v>
@@ -42194,7 +42198,7 @@
     </row>
     <row r="933" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A933" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B933" s="7" t="s">
         <v>8</v>
@@ -42214,7 +42218,7 @@
     </row>
     <row r="934" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A934" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B934" s="13" t="s">
         <v>8</v>
@@ -42234,7 +42238,7 @@
     </row>
     <row r="935" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A935" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B935" s="13" t="s">
         <v>8</v>
@@ -42254,7 +42258,7 @@
     </row>
     <row r="936" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A936" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B936" s="13" t="s">
         <v>8</v>
@@ -42274,7 +42278,7 @@
     </row>
     <row r="937" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A937" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B937" s="13" t="s">
         <v>8</v>
@@ -42294,7 +42298,7 @@
     </row>
     <row r="938" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A938" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B938" s="13" t="s">
         <v>8</v>
@@ -42314,7 +42318,7 @@
     </row>
     <row r="939" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A939" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B939" s="13" t="s">
         <v>8</v>
@@ -42334,7 +42338,7 @@
     </row>
     <row r="940" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A940" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B940" s="13" t="s">
         <v>8</v>
@@ -42354,7 +42358,7 @@
     </row>
     <row r="941" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A941" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B941" s="13" t="s">
         <v>8</v>
@@ -42374,7 +42378,7 @@
     </row>
     <row r="942" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A942" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B942" s="13" t="s">
         <v>8</v>
@@ -42394,7 +42398,7 @@
     </row>
     <row r="943" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A943" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B943" s="13" t="s">
         <v>8</v>
@@ -42414,7 +42418,7 @@
     </row>
     <row r="944" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A944" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B944" s="13" t="s">
         <v>8</v>
@@ -42434,7 +42438,7 @@
     </row>
     <row r="945" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A945" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B945" s="13" t="s">
         <v>8</v>
@@ -42454,7 +42458,7 @@
     </row>
     <row r="946" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A946" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B946" s="13" t="s">
         <v>8</v>
@@ -42474,7 +42478,7 @@
     </row>
     <row r="947" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A947" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B947" s="13" t="s">
         <v>8</v>
@@ -42494,7 +42498,7 @@
     </row>
     <row r="948" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A948" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B948" s="11" t="s">
         <v>8</v>
@@ -42514,7 +42518,7 @@
     </row>
     <row r="949" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A949" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B949" s="7" t="s">
         <v>8</v>
@@ -42534,7 +42538,7 @@
     </row>
     <row r="950" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A950" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B950" s="11" t="s">
         <v>8</v>
@@ -42554,7 +42558,7 @@
     </row>
     <row r="951" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A951" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B951" s="7" t="s">
         <v>8</v>
@@ -42574,7 +42578,7 @@
     </row>
     <row r="952" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A952" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B952" s="11" t="s">
         <v>8</v>
@@ -42594,7 +42598,7 @@
     </row>
     <row r="953" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A953" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B953" s="11" t="s">
         <v>8</v>
@@ -42611,7 +42615,7 @@
     </row>
     <row r="954" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A954" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B954" s="7" t="s">
         <v>8</v>
@@ -42631,7 +42635,7 @@
     </row>
     <row r="955" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A955" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B955" s="7" t="s">
         <v>8</v>
@@ -42651,7 +42655,7 @@
     </row>
     <row r="956" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A956" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B956" s="13" t="s">
         <v>8</v>
@@ -42671,7 +42675,7 @@
     </row>
     <row r="957" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A957" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B957" s="13" t="s">
         <v>8</v>
@@ -42691,7 +42695,7 @@
     </row>
     <row r="958" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A958" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B958" s="7" t="s">
         <v>8</v>
@@ -42711,7 +42715,7 @@
     </row>
     <row r="959" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A959" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B959" s="7" t="s">
         <v>8</v>
@@ -65722,8 +65726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E959"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E933" sqref="E933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -82011,7 +82015,7 @@
   <dimension ref="A1:E959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="S424" sqref="S424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
